--- a/nopCommerce/TestData/TestData.xlsx
+++ b/nopCommerce/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationTesting\PyCharmWS\nopCommerce\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF59CA-FBBC-4E29-AD0C-DFFA333DD85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6A2F0A-EF76-42A9-8D90-34CA5E43BDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
